--- a/Dataset/Folds/Fold_1/Excel/3.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11419" uniqueCount="1637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12763" uniqueCount="1768">
   <si>
     <t>Doi</t>
   </si>
@@ -5646,6 +5646,399 @@
   </si>
   <si>
     <t>[Yong%Gao%NULL%3,          Tuantuan%Li%NULL%1,          Mingfeng%Han%NULL%1,          Xiuyong%Li%NULL%1,          Dong%Wu%NULL%1,          Yuanhong%Xu%NULL%1,          Yulin%Zhu%NULL%1,          Yan%Liu%NULL%1,          Xiaowu%Wang%wangxiaowu19880218@126.com%1,          Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,           Yeming%Wang%NULL%2,           Xingwang%Li%NULL%1,           Lili%Ren%NULL%1,           Jianping%Zhao%NULL%1,           Yi%Hu%NULL%3,           Li%Zhang%NULL%2,           Guohui%Fan%NULL%2,           Jiuyang%Xu%NULL%2,           Xiaoying%Gu%NULL%2,           Zhenshun%Cheng%NULL%2,           Ting%Yu%NULL%4,           Jiaan%Xia%NULL%1,           Yuan%Wei%NULL%3,           Wenjuan%Wu%NULL%1,           Xuelei%Xie%NULL%1,           Wen%Yin%NULL%1,           Hui%Li%NULL%3,           Min%Liu%NULL%1,           Yan%Xiao%NULL%2,           Hong%Gao%NULL%2,           Li%Guo%NULL%2,           Jungang%Xie%NULL%1,           Guangfa%Wang%NULL%1,           Rongmeng%Jiang%NULL%1,           Zhancheng%Gao%NULL%1,           Qi%Jin%NULL%2,           Jianwei%Wang%wangjw28@163.com%1,           Bin%Cao%caobin_ben@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,           Shuofeng%Yuan%NULL%1,           Kin-Hang%Kok%NULL%1,           Kelvin Kai-Wang%To%NULL%1,           Hin%Chu%NULL%1,           Jin%Yang%NULL%1,           Fanfan%Xing%NULL%1,           Jieling%Liu%NULL%1,           Cyril Chik-Yan%Yip%NULL%1,           Rosana Wing-Shan%Poon%NULL%1,           Hoi-Wah%Tsoi%NULL%1,           Simon Kam-Fai%Lo%NULL%1,           Kwok-Hung%Chan%NULL%1,           Vincent Kwok-Man%Poon%NULL%1,           Wan-Mui%Chan%NULL%1,           Jonathan Daniel%Ip%NULL%1,           Jian-Piao%Cai%NULL%1,           Vincent Chi-Chung%Cheng%NULL%1,           Honglin%Chen%NULL%1,           Christopher Kim-Ming%Hui%NULL%1,           Kwok-Yung%Yuen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,           Xuhua%Guan%NULL%1,           Peng%Wu%NULL%1,           Xiaoye%Wang%NULL%1,           Lei%Zhou%NULL%1,           Yeqing%Tong%NULL%1,           Ruiqi%Ren%NULL%1,           Kathy S.M.%Leung%NULL%1,           Eric H.Y.%Lau%NULL%1,           Jessica Y.%Wong%NULL%1,           Xuesen%Xing%NULL%1,           Nijuan%Xiang%NULL%1,           Yang%Wu%NULL%1,           Chao%Li%NULL%1,           Qi%Chen%NULL%1,           Dan%Li%NULL%1,           Tian%Liu%NULL%1,           Jing%Zhao%NULL%1,           Man%Liu%NULL%1,           Wenxiao%Tu%NULL%1,           Chuding%Chen%NULL%1,           Lianmei%Jin%NULL%1,           Rui%Yang%NULL%1,           Qi%Wang%NULL%1,           Suhua%Zhou%NULL%1,           Rui%Wang%NULL%1,           Hui%Liu%NULL%1,           Yinbo%Luo%NULL%1,           Yuan%Liu%NULL%1,           Ge%Shao%NULL%1,           Huan%Li%NULL%1,           Zhongfa%Tao%NULL%1,           Yang%Yang%NULL%1,           Zhiqiang%Deng%NULL%1,           Boxi%Liu%NULL%1,           Zhitao%Ma%NULL%1,           Yanping%Zhang%NULL%1,           Guoqing%Shi%NULL%1,           Tommy T.Y.%Lam%NULL%1,           Joseph T.%Wu%NULL%1,           George F.%Gao%NULL%1,           Benjamin J.%Cowling%NULL%1,           Bo%Yang%NULL%2,           Bo%Yang%NULL%0,           Gabriel M.%Leung%NULL%1,           Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,           Min%Zhou%NULL%1,           Xuan%Dong%NULL%1,           Jieming%Qu%NULL%2,           Fengyun%Gong%NULL%1,           Yang%Han%NULL%1,           Yang%Qiu%NULL%1,           Jingli%Wang%NULL%1,           Ying%Liu%NULL%2,           Yuan%Wei%NULL%0,           Jia'an%Xia%NULL%2,           Ting%Yu%NULL%0,           Xinxin%Zhang%NULL%1,           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,           Nannan%Shi%NULL%2,           Nannan%Shi%NULL%0,           Fei%Shan%NULL%1,           Zhiyong%Zhang%NULL%1,           Jie%Shen%NULL%1,           Hongzhou%Lu%NULL%2,           Yun%Ling%NULL%2,           Yebin%Jiang%NULL%2,           Yebin%Jiang%NULL%0,           Yuxin%Shi%shiyuxin@shphc.org.cn%3,           Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,           Yuan-Yuan%Fang%NULL%1,           Yan%Deng%NULL%2,           Wei%Liu%NULL%1,           Mei-Fang%Wang%NULL%1,           Jing-Ping%Ma%NULL%1,           Wei%Xiao%NULL%1,           Ying-Nan%Wang%NULL%1,           Min-Hua%Zhong%NULL%1,           Cheng-Hong%Li%NULL%1,           Guang-Cai%Li%NULL%1,           Hui-Guo%Liu%NULL%2,           Xiu-Yuan%Hao%NULL%4,           Xiu-Yuan%Hao%NULL%0,           Pei-Fang%Wei%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,           Ye-Ming%Wang%NULL%1,           Zhi-Qiang%Wu%NULL%1,           Zi-Chun%Xiang%NULL%1,           Li%Guo%NULL%0,           Teng%Xu%NULL%1,           Yong-Zhong%Jiang%NULL%1,           Yan%Xiong%NULL%1,           Yong-Jun%Li%NULL%1,           Xing-Wang%Li%NULL%1,           Hui%Li%NULL%0,           Guo-Hui%Fan%NULL%1,           Xiao-Ying%Gu%NULL%1,           Yan%Xiao%NULL%0,           Hong%Gao%NULL%0,           Jiu-Yang%Xu%NULL%1,           Fan%Yang%NULL%1,           Xin-Ming%Wang%NULL%1,           Chao%Wu%NULL%1,           Lan%Chen%NULL%1,           Yi-Wei%Liu%NULL%1,           Bo%Liu%NULL%1,           Jian%Yang%NULL%1,           Xiao-Rui%Wang%NULL%1,           Jie%Dong%NULL%1,           Li%Li%NULL%2,           Chao-Lin%Huang%NULL%1,           Jian-Ping%Zhao%NULL%1,           Yi%Hu%NULL%0,           Zhen-Shun%Cheng%NULL%1,           Lin-Lin%Liu%NULL%1,           Zhao-Hui%Qian%NULL%1,           Chuan%Qin%NULL%1,           Qi%Jin%NULL%0,           Bin%Cao%NULL%0,           Jian-Wei%Wang%NULL%1,           Xiu-Yuan%Hao%NULL%0,           Xiu-Yuan%Hao%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,           Dengju%Li%NULL%1,           Xiong%Wang%NULL%1,           Ziyong%Sun%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,           Xiao-Xin%Wu%NULL%1,           Xian-Gao%Jiang%NULL%1,           Kai-Jin%Xu%NULL%1,           Ling-Jun%Ying%NULL%1,           Chun-Lian%Ma%NULL%1,           Shi-Bo%Li%NULL%1,           Hua-Ying%Wang%NULL%1,           Sheng%Zhang%NULL%1,           Hai-Nv%Gao%NULL%1,           Ji-Fang%Sheng%NULL%1,           Hong-Liu%Cai%NULL%1,           Yun-Qing%Qiu%NULL%1,           Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,           Xiaojia%Wu%NULL%1,           Wenbing%Zeng%NULL%1,           Dajing%Guo%NULL%2,           Zheng%Fang%NULL%2,           Linli%Chen%NULL%2,           Huizhe%Huang%NULL%1,           Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,           Xiaoyu%Han%NULL%1,           Nanchuan%Jiang%NULL%1,           Yukun%Cao%NULL%1,           Osamah%Alwalid%NULL%1,           Jin%Gu%NULL%1,           Yanqing%Fan%1024932023@qq.com%2,           Chuansheng%Zheng%hqzcsxh@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%16,           Yuan%Yu%NULL%1,           Jiqian%Xu%NULL%1,           Huaqing%Shu%NULL%1,           Jia'an%Xia%NULL%0,           Hong%Liu%NULL%1,           Yongran%Wu%NULL%1,           Lu%Zhang%NULL%1,           Zhui%Yu%NULL%1,           Minghao%Fang%NULL%1,           Ting%Yu%NULL%0,           Yaxin%Wang%NULL%1,           Shangwen%Pan%NULL%1,           Xiaojing%Zou%NULL%1,           Shiying%Yuan%NULL%1,           You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,           Jing-Hui%Dong%NULL%1,           Wei-Min%An%NULL%1,           Xiao-Yan%Lv%15001008285@139.com%1,           Xiao-Ping%Yin%yinxiaoping78@sina.com%1,           Jian-Zeng%Zhang%NULL%1,           Li%Dong%NULL%1,           Xi%Ma%NULL%1,           Hong-Jie%Zhang%NULL%1,           Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%3,           Zhenlu%Yang%NULL%2,           Zhenlu%Yang%NULL%0,           Hongyan%Hou%NULL%2,           Hongyan%Hou%NULL%0,           Chenao%Zhan%NULL%1,           Chong%Chen%NULL%1,           Wenzhi%Lv%NULL%2,           Wenzhi%Lv%NULL%0,           Qian%Tao%NULL%2,           Qian%Tao%NULL%0,           Ziyong%Sun%NULL%0,           Ziyong%Sun%NULL%0,           Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,           Qiqi%Cao%NULL%1,           Le%Qin%NULL%1,           Xiaoyang%Wang%NULL%1,           Zenghui%Cheng%NULL%1,           Ashan%Pan%NULL%1,           Jianyi%Dai%NULL%1,           Qingfeng%Sun%NULL%1,           Fengquan%Zhao%NULL%1,           Jieming%Qu%NULL%0,           Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,           Nan%Hu%NULL%1,           Jing%Lou%NULL%1,           Kun%Chen%NULL%1,           Xuqin%Kang%NULL%1,           Zhenjun%Xiang%NULL%1,           Hui%Chen%NULL%1,           Dali%Wang%NULL%1,           Ning%Liu%NULL%1,           Dong%Liu%NULL%1,           Gang%Chen%NULL%1,           Yongliang%Zhang%NULL%1,           Dou%Li%NULL%1,           Jianren%Li%NULL%1,           Huixin%Lian%NULL%1,           Shengmei%Niu%NULL%1,           Luxi%Zhang%NULL%1,           Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,           Mengqi%Tu%NULL%1,           Shipei%Wang%NULL%1,           Sichao%Chen%NULL%1,           Wei%Zhou%NULL%1,           Danyang%Chen%NULL%1,           Lin%Zhou%NULL%1,           Min%Wang%NULL%1,           Yan%Zhao%NULL%1,           Wen%Zeng%NULL%1,           Qi%Huang%NULL%1,           Hai'bo%Xu%NULL%1,           Zeming%Liu%NULL%1,           Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,           Chengcheng%Yu%NULL%1,           Jing%Qu%NULL%1,           Lieguang%Zhang%NULL%1,           Songfeng%Jiang%NULL%1,           Deyang%Huang%NULL%1,           Bihua%Chen%NULL%1,           Zhiping%Zhang%NULL%1,           Wanhua%Guan%NULL%1,           Zhoukun%Ling%NULL%1,           Rui%Jiang%NULL%1,           Tianli%Hu%NULL%1,           Yan%Ding%NULL%1,           Lin%Lin%NULL%1,           Qingxin%Gan%NULL%1,           Liangping%Luo%tluolp@jnu.edu.cn%1,           Xiaoping%Tang%xtang@21cn.com%1,           Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,           Zhao-Wu%Tao%NULL%1,           Lei%Wang%NULL%1,           Ming-Li%Yuan%NULL%1,           Kui%Liu%NULL%1,           Ling%Zhou%NULL%1,           Shuang%Wei%NULL%1,           Yan%Deng%NULL%0,           Jing%Liu%NULL%1,           Hui-Guo%Liu%NULL%0,           Ming%Yang%NULL%1,           Yi%Hu%NULL%0,           Pei-Fang%Wei%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,           Jiong%Wu%NULL%1,           Faqi%Wu%NULL%1,           Dajing%Guo%NULL%0,           Linli%Chen%NULL%0,           Zheng%Fang%NULL%0,           Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,           Jun%Liu%NULL%1,           Xinguo%Zhao%NULL%1,           Chengyuan%Liu%NULL%1,           Wei%Wang%NULL%1,           Dawei%Wang%NULL%1,           Wei%Xu%NULL%1,           Chunyu%Zhang%NULL%1,           Jiong%Yu%NULL%1,           Bin%Jiang%NULL%1,           Hongcui%Cao%hccao@zju.edu.cn%1,           Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,           Xiaorong%Hu%NULL%1,           Wenlin%Cheng%NULL%1,           Lei%Yu%NULL%1,           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,           Qiang%Liu%liuqiang@irm-cams.ac.cn%2,           Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%5,           Kun%Yang%NULL%2,           Kun%Yang%NULL%0,           Wenxia%Wang%NULL%2,           Wenxia%Wang%NULL%0,           Lingyu%Jiang%NULL%2,           Lingyu%Jiang%NULL%0,           Jianxin%Song%songsingsjx@sina.com%2,           Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,           Meiwen%Tang%NULL%1,           Xiaobin%Zheng%NULL%1,           Ye%Liu%ly77219@163.com%1,           Xiaofeng%Li%zdwylxf@163.com%1,           Hong%Shan%shanhong@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%1,           Dong%Sun%NULL%1,           Yao%Liu%NULL%1,           Yanqing%Fan%NULL%0,           Lingyun%Zhao%NULL%1,           Xiaoming%Li%NULL%1,           Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%1,           SaiBin%Wang%NULL%2,           SaiBin%Wang%NULL%0,           YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,           Ci%Song%NULL%1,           Chuanjun%Xu%NULL%1,           Guangfu%Jin%NULL%1,           Yaling%Chen%NULL%1,           Xin%Xu%NULL%1,           Hongxia%Ma%NULL%1,           Wei%Chen%NULL%1,           Yuan%Lin%NULL%1,           Yishan%Zheng%NULL%1,           Jianming%Wang%NULL%1,           Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,           Yongxiang%Yi%ian0126@126.com%1,           Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%1,           Yao%Tian%NULL%2,           Yao%Tian%NULL%0,           Jing%Zhou%NULL%1,           Xuan%Ma%NULL%1,           Min%Yang%NULL%1,           ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,           James%Fielding%NULL%1,           Michaela%Diercke%NULL%1,           Christine%Campese%NULL%1,           Vincent%Enouf%NULL%1,           Alexandre%Gaymard%NULL%1,           Antonino%Bella%NULL%1,           Paola%Sognamiglio%NULL%1,           Maria José%Sierra Moros%NULL%1,           Antonio Nicolau%Riutort%NULL%1,           Yulia V.%Demina%NULL%1,           Romain%Mahieu%NULL%1,           Markku%Broas%NULL%1,           Malin%Bengnér%NULL%1,           Silke%Buda%NULL%1,           Julia%Schilling%NULL%1,           Laurent%Filleul%NULL%1,           Agnès%Lepoutre%NULL%1,           Christine%Saura%NULL%1,           Alexandra%Mailles%NULL%1,           Daniel%Levy-Bruhl%NULL%1,           Bruno%Coignard%NULL%1,           Sibylle%Bernard-Stoecklin%NULL%1,           Sylvie%Behillil%NULL%1,           Sylvie%van der Werf%NULL%1,           Martine%Valette%NULL%1,           Bruno%Lina%NULL%1,           Flavia%Riccardo%NULL%1,           Emanuele%Nicastri%NULL%1,           Inmaculada%Casas%NULL%1,           Amparo%Larrauri%NULL%1,           Magdalena%Salom Castell%NULL%1,           Francisco%Pozo%NULL%1,           Rinat A.%Maksyutov%NULL%1,           Charlotte%Martin%NULL%1,           Marc%Van Ranst%NULL%1,           Nathalie%Bossuyt%NULL%1,           Lotta%Siira%NULL%1,           Jussi%Sane%NULL%1,           Karin%Tegmark-Wisell%NULL%1,           Maria%Palmérus%NULL%1,           Eeva K.%Broberg%NULL%1,           Julien%Beauté%NULL%1,           Pernille%Jorgensen%NULL%1,           Nick%Bundle%NULL%1,           Dmitriy%Pereyaslov%NULL%1,           Cornelia%Adlhoch%NULL%1,           Jukka%Pukkila%NULL%1,           Richard%Pebody%NULL%1,           Sonja%Olsen%NULL%1,           Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%18,           Ting%Yu%NULL%0,           Ronghui%Du%NULL%1,           Guohui%Fan%NULL%0,           Ying%Liu%NULL%0,           Zhibo%Liu%NULL%1,           Jie%Xiang%NULL%1,           Yeming%Wang%NULL%0,           Bin%Song%NULL%1,           Xiaoying%Gu%NULL%0,           Lulu%Guan%NULL%1,           Yuan%Wei%NULL%0,           Hui%Li%NULL%0,           Xudong%Wu%NULL%1,           Jiuyang%Xu%NULL%0,           Shengjin%Tu%NULL%1,           Yi%Zhang%NULL%1,           Hua%Chen%NULL%1,           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,           Tangkai%Qi%NULL%1,           Li%Liu%NULL%1,           Yun%Ling%NULL%0,           Zhiping%Qian%NULL%1,           Tao%Li%NULL%1,           Feng%Li%NULL%1,           Qingnian%Xu%NULL%1,           Yuyi%Zhang%NULL%1,           Shuibao%Xu%NULL%1,           Zhigang%Song%NULL%1,           Yigang%Zeng%NULL%1,           Yinzhong%Shen%NULL%1,           Yuxin%Shi%NULL%0,           Tongyu%Zhu%NULL%1,           Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%1,           Bin%Quan%NULL%1,           Xiaoning%Li%NULL%1,           Guangjian%Gao%NULL%1,           Wenqiang%Zheng%NULL%1,           Jun%Zhang%NULL%1,           Zhiyun%Zhang%NULL%1,           Chunsheng%Liu%NULL%1,           Li%Li%NULL%0,           Chenglin%Wang%NULL%1,           Guihua%Zhang%NULL%1,           Jiajia%Li%NULL%1,           Yunhai%Dai%NULL%1,           Jianghua%Yang%yjhpath@163.com%1,           Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%4,           Kai%Xie%NULL%2,           Kai%Xie%NULL%0,           Hui%Lu%NULL%1,           Lei%Xu%bayinhexl@126.com%1,           Shusheng%Zhou%zhouss108@163.com%1,           Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,           Yuanyuan%Xing%NULL%1,           Yu%Xiao%NULL%1,           Liping%Deng%NULL%1,           Qiu%Zhao%NULL%1,           Hongling%Wang%NULL%1,           Yong%Xiong%NULL%1,           Zhenshun%Cheng%NULL%0,           Shicheng%Gao%NULL%1,           Ke%Liang%NULL%1,           Mingqi%Luo%NULL%1,           Tielong%Chen%NULL%1,           Shihui%Song%NULL%1,           Zhiyong%Ma%NULL%1,           Xiaoping%Chen%NULL%1,           Ruiying%Zheng%NULL%1,           Qian%Cao%NULL%1,           Fan%Wang%fanndywang@foxmail.com%1,           Yongxi%Zhang%znact1936@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,           Bohan%Yang%NULL%1,           Qianwen%Li%NULL%1,           Lu%Wen%NULL%1,           Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%1,           Yingxia%Liu%NULL%1,           Lei%Liu%NULL%1,           Xianfeng%Wang%NULL%1,           Nijuan%Luo%NULL%1,           Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,           N -B%Yang%NULL%1,           F%Ding%NULL%1,           A H Y%Ma%NULL%1,           Z -Y%Wang%NULL%2,           Y -F%Shen%NULL%1,           C -W%Shi%NULL%1,           X%Lian%NULL%1,           J -G%Chu%NULL%1,           L%Chen%chxmin@hotmail.com%1,           Z -Y%Wang%NULL%0,           D -W%Ren%NULL%1,           G -X%Li%NULL%1,           X -Q%Chen%chxmin@hotmail.com%1,           H -J%Shen%NULL%1,           X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%3,           Tuantuan%Li%NULL%1,           Mingfeng%Han%NULL%1,           Xiuyong%Li%NULL%1,           Dong%Wu%NULL%1,           Yuanhong%Xu%NULL%1,           Yulin%Zhu%NULL%1,           Yan%Liu%NULL%1,           Xiaowu%Wang%wangxiaowu19880218@126.com%1,           Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,            Yeming%Wang%NULL%2,            Xingwang%Li%NULL%1,            Lili%Ren%NULL%1,            Jianping%Zhao%NULL%1,            Yi%Hu%NULL%3,            Li%Zhang%NULL%2,            Guohui%Fan%NULL%2,            Jiuyang%Xu%NULL%2,            Xiaoying%Gu%NULL%2,            Zhenshun%Cheng%NULL%2,            Ting%Yu%NULL%4,            Jiaan%Xia%NULL%1,            Yuan%Wei%NULL%3,            Wenjuan%Wu%NULL%1,            Xuelei%Xie%NULL%1,            Wen%Yin%NULL%1,            Hui%Li%NULL%3,            Min%Liu%NULL%1,            Yan%Xiao%NULL%2,            Hong%Gao%NULL%2,            Li%Guo%NULL%2,            Jungang%Xie%NULL%1,            Guangfa%Wang%NULL%1,            Rongmeng%Jiang%NULL%1,            Zhancheng%Gao%NULL%1,            Qi%Jin%NULL%2,            Jianwei%Wang%wangjw28@163.com%1,            Bin%Cao%caobin_ben@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,            Shuofeng%Yuan%NULL%1,            Kin-Hang%Kok%NULL%1,            Kelvin Kai-Wang%To%NULL%1,            Hin%Chu%NULL%1,            Jin%Yang%NULL%1,            Fanfan%Xing%NULL%1,            Jieling%Liu%NULL%1,            Cyril Chik-Yan%Yip%NULL%1,            Rosana Wing-Shan%Poon%NULL%1,            Hoi-Wah%Tsoi%NULL%1,            Simon Kam-Fai%Lo%NULL%1,            Kwok-Hung%Chan%NULL%1,            Vincent Kwok-Man%Poon%NULL%1,            Wan-Mui%Chan%NULL%1,            Jonathan Daniel%Ip%NULL%1,            Jian-Piao%Cai%NULL%1,            Vincent Chi-Chung%Cheng%NULL%1,            Honglin%Chen%NULL%1,            Christopher Kim-Ming%Hui%NULL%1,            Kwok-Yung%Yuen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,            Xuhua%Guan%NULL%1,            Peng%Wu%NULL%1,            Xiaoye%Wang%NULL%1,            Lei%Zhou%NULL%1,            Yeqing%Tong%NULL%1,            Ruiqi%Ren%NULL%1,            Kathy S.M.%Leung%NULL%1,            Eric H.Y.%Lau%NULL%1,            Jessica Y.%Wong%NULL%1,            Xuesen%Xing%NULL%1,            Nijuan%Xiang%NULL%1,            Yang%Wu%NULL%1,            Chao%Li%NULL%1,            Qi%Chen%NULL%1,            Dan%Li%NULL%1,            Tian%Liu%NULL%1,            Jing%Zhao%NULL%1,            Man%Liu%NULL%1,            Wenxiao%Tu%NULL%1,            Chuding%Chen%NULL%1,            Lianmei%Jin%NULL%1,            Rui%Yang%NULL%1,            Qi%Wang%NULL%1,            Suhua%Zhou%NULL%1,            Rui%Wang%NULL%1,            Hui%Liu%NULL%1,            Yinbo%Luo%NULL%1,            Yuan%Liu%NULL%1,            Ge%Shao%NULL%1,            Huan%Li%NULL%1,            Zhongfa%Tao%NULL%1,            Yang%Yang%NULL%1,            Zhiqiang%Deng%NULL%1,            Boxi%Liu%NULL%1,            Zhitao%Ma%NULL%1,            Yanping%Zhang%NULL%1,            Guoqing%Shi%NULL%1,            Tommy T.Y.%Lam%NULL%1,            Joseph T.%Wu%NULL%1,            George F.%Gao%NULL%1,            Benjamin J.%Cowling%NULL%1,            Bo%Yang%NULL%2,            Bo%Yang%NULL%0,            Gabriel M.%Leung%NULL%1,            Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,            Min%Zhou%NULL%1,            Xuan%Dong%NULL%1,            Jieming%Qu%NULL%2,            Fengyun%Gong%NULL%1,            Yang%Han%NULL%1,            Yang%Qiu%NULL%1,            Jingli%Wang%NULL%1,            Ying%Liu%NULL%2,            Yuan%Wei%NULL%0,            Jia'an%Xia%NULL%2,            Ting%Yu%NULL%0,            Xinxin%Zhang%NULL%1,            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,            Nannan%Shi%NULL%2,            Nannan%Shi%NULL%0,            Fei%Shan%NULL%1,            Zhiyong%Zhang%NULL%1,            Jie%Shen%NULL%1,            Hongzhou%Lu%NULL%2,            Yun%Ling%NULL%2,            Yebin%Jiang%NULL%2,            Yebin%Jiang%NULL%0,            Yuxin%Shi%shiyuxin@shphc.org.cn%3,            Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,            Yuan-Yuan%Fang%NULL%1,            Yan%Deng%NULL%2,            Wei%Liu%NULL%1,            Mei-Fang%Wang%NULL%1,            Jing-Ping%Ma%NULL%1,            Wei%Xiao%NULL%1,            Ying-Nan%Wang%NULL%1,            Min-Hua%Zhong%NULL%1,            Cheng-Hong%Li%NULL%1,            Guang-Cai%Li%NULL%1,            Hui-Guo%Liu%NULL%2,            Xiu-Yuan%Hao%NULL%4,            Xiu-Yuan%Hao%NULL%0,            Pei-Fang%Wei%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,            Ye-Ming%Wang%NULL%1,            Zhi-Qiang%Wu%NULL%1,            Zi-Chun%Xiang%NULL%1,            Li%Guo%NULL%0,            Teng%Xu%NULL%1,            Yong-Zhong%Jiang%NULL%1,            Yan%Xiong%NULL%1,            Yong-Jun%Li%NULL%1,            Xing-Wang%Li%NULL%1,            Hui%Li%NULL%0,            Guo-Hui%Fan%NULL%1,            Xiao-Ying%Gu%NULL%1,            Yan%Xiao%NULL%0,            Hong%Gao%NULL%0,            Jiu-Yang%Xu%NULL%1,            Fan%Yang%NULL%1,            Xin-Ming%Wang%NULL%1,            Chao%Wu%NULL%1,            Lan%Chen%NULL%1,            Yi-Wei%Liu%NULL%1,            Bo%Liu%NULL%1,            Jian%Yang%NULL%1,            Xiao-Rui%Wang%NULL%1,            Jie%Dong%NULL%1,            Li%Li%NULL%2,            Chao-Lin%Huang%NULL%1,            Jian-Ping%Zhao%NULL%1,            Yi%Hu%NULL%0,            Zhen-Shun%Cheng%NULL%1,            Lin-Lin%Liu%NULL%1,            Zhao-Hui%Qian%NULL%1,            Chuan%Qin%NULL%1,            Qi%Jin%NULL%0,            Bin%Cao%NULL%0,            Jian-Wei%Wang%NULL%1,            Xiu-Yuan%Hao%NULL%0,            Xiu-Yuan%Hao%NULL%0,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,            Dengju%Li%NULL%1,            Xiong%Wang%NULL%1,            Ziyong%Sun%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,            Xiao-Xin%Wu%NULL%1,            Xian-Gao%Jiang%NULL%1,            Kai-Jin%Xu%NULL%1,            Ling-Jun%Ying%NULL%1,            Chun-Lian%Ma%NULL%1,            Shi-Bo%Li%NULL%1,            Hua-Ying%Wang%NULL%1,            Sheng%Zhang%NULL%1,            Hai-Nv%Gao%NULL%1,            Ji-Fang%Sheng%NULL%1,            Hong-Liu%Cai%NULL%1,            Yun-Qing%Qiu%NULL%1,            Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,            Xiaojia%Wu%NULL%1,            Wenbing%Zeng%NULL%1,            Dajing%Guo%NULL%2,            Zheng%Fang%NULL%2,            Linli%Chen%NULL%2,            Huizhe%Huang%NULL%1,            Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,            Xiaoyu%Han%NULL%1,            Nanchuan%Jiang%NULL%1,            Yukun%Cao%NULL%1,            Osamah%Alwalid%NULL%1,            Jin%Gu%NULL%1,            Yanqing%Fan%1024932023@qq.com%2,            Chuansheng%Zheng%hqzcsxh@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%16,            Yuan%Yu%NULL%1,            Jiqian%Xu%NULL%1,            Huaqing%Shu%NULL%1,            Jia'an%Xia%NULL%0,            Hong%Liu%NULL%1,            Yongran%Wu%NULL%1,            Lu%Zhang%NULL%1,            Zhui%Yu%NULL%1,            Minghao%Fang%NULL%1,            Ting%Yu%NULL%0,            Yaxin%Wang%NULL%1,            Shangwen%Pan%NULL%1,            Xiaojing%Zou%NULL%1,            Shiying%Yuan%NULL%1,            You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,            Jing-Hui%Dong%NULL%1,            Wei-Min%An%NULL%1,            Xiao-Yan%Lv%15001008285@139.com%1,            Xiao-Ping%Yin%yinxiaoping78@sina.com%1,            Jian-Zeng%Zhang%NULL%1,            Li%Dong%NULL%1,            Xi%Ma%NULL%1,            Hong-Jie%Zhang%NULL%1,            Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%3,            Zhenlu%Yang%NULL%2,            Zhenlu%Yang%NULL%0,            Hongyan%Hou%NULL%2,            Hongyan%Hou%NULL%0,            Chenao%Zhan%NULL%1,            Chong%Chen%NULL%1,            Wenzhi%Lv%NULL%2,            Wenzhi%Lv%NULL%0,            Qian%Tao%NULL%2,            Qian%Tao%NULL%0,            Ziyong%Sun%NULL%0,            Ziyong%Sun%NULL%0,            Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,            Qiqi%Cao%NULL%1,            Le%Qin%NULL%1,            Xiaoyang%Wang%NULL%1,            Zenghui%Cheng%NULL%1,            Ashan%Pan%NULL%1,            Jianyi%Dai%NULL%1,            Qingfeng%Sun%NULL%1,            Fengquan%Zhao%NULL%1,            Jieming%Qu%NULL%0,            Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,            Nan%Hu%NULL%1,            Jing%Lou%NULL%1,            Kun%Chen%NULL%1,            Xuqin%Kang%NULL%1,            Zhenjun%Xiang%NULL%1,            Hui%Chen%NULL%1,            Dali%Wang%NULL%1,            Ning%Liu%NULL%1,            Dong%Liu%NULL%1,            Gang%Chen%NULL%1,            Yongliang%Zhang%NULL%1,            Dou%Li%NULL%1,            Jianren%Li%NULL%1,            Huixin%Lian%NULL%1,            Shengmei%Niu%NULL%1,            Luxi%Zhang%NULL%1,            Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,            Mengqi%Tu%NULL%1,            Shipei%Wang%NULL%1,            Sichao%Chen%NULL%1,            Wei%Zhou%NULL%1,            Danyang%Chen%NULL%1,            Lin%Zhou%NULL%1,            Min%Wang%NULL%1,            Yan%Zhao%NULL%1,            Wen%Zeng%NULL%1,            Qi%Huang%NULL%1,            Hai'bo%Xu%NULL%1,            Zeming%Liu%NULL%1,            Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,            Chengcheng%Yu%NULL%1,            Jing%Qu%NULL%1,            Lieguang%Zhang%NULL%1,            Songfeng%Jiang%NULL%1,            Deyang%Huang%NULL%1,            Bihua%Chen%NULL%1,            Zhiping%Zhang%NULL%1,            Wanhua%Guan%NULL%1,            Zhoukun%Ling%NULL%1,            Rui%Jiang%NULL%1,            Tianli%Hu%NULL%1,            Yan%Ding%NULL%1,            Lin%Lin%NULL%1,            Qingxin%Gan%NULL%1,            Liangping%Luo%tluolp@jnu.edu.cn%1,            Xiaoping%Tang%xtang@21cn.com%1,            Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,            Zhao-Wu%Tao%NULL%1,            Lei%Wang%NULL%1,            Ming-Li%Yuan%NULL%1,            Kui%Liu%NULL%1,            Ling%Zhou%NULL%1,            Shuang%Wei%NULL%1,            Yan%Deng%NULL%0,            Jing%Liu%NULL%1,            Hui-Guo%Liu%NULL%0,            Ming%Yang%NULL%1,            Yi%Hu%NULL%0,            Pei-Fang%Wei%NULL%0,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,            Jiong%Wu%NULL%1,            Faqi%Wu%NULL%1,            Dajing%Guo%NULL%0,            Linli%Chen%NULL%0,            Zheng%Fang%NULL%0,            Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,            Jun%Liu%NULL%1,            Xinguo%Zhao%NULL%1,            Chengyuan%Liu%NULL%1,            Wei%Wang%NULL%1,            Dawei%Wang%NULL%1,            Wei%Xu%NULL%1,            Chunyu%Zhang%NULL%1,            Jiong%Yu%NULL%1,            Bin%Jiang%NULL%1,            Hongcui%Cao%hccao@zju.edu.cn%1,            Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,            Xiaorong%Hu%NULL%1,            Wenlin%Cheng%NULL%1,            Lei%Yu%NULL%1,            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,            Qiang%Liu%liuqiang@irm-cams.ac.cn%2,            Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%5,            Kun%Yang%NULL%2,            Kun%Yang%NULL%0,            Wenxia%Wang%NULL%2,            Wenxia%Wang%NULL%0,            Lingyu%Jiang%NULL%2,            Lingyu%Jiang%NULL%0,            Jianxin%Song%songsingsjx@sina.com%2,            Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,            Meiwen%Tang%NULL%1,            Xiaobin%Zheng%NULL%1,            Ye%Liu%ly77219@163.com%1,            Xiaofeng%Li%zdwylxf@163.com%1,            Hong%Shan%shanhong@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%1,            Dong%Sun%NULL%1,            Yao%Liu%NULL%1,            Yanqing%Fan%NULL%0,            Lingyun%Zhao%NULL%1,            Xiaoming%Li%NULL%1,            Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%1,            SaiBin%Wang%NULL%2,            SaiBin%Wang%NULL%0,            YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,            Ci%Song%NULL%1,            Chuanjun%Xu%NULL%1,            Guangfu%Jin%NULL%1,            Yaling%Chen%NULL%1,            Xin%Xu%NULL%1,            Hongxia%Ma%NULL%1,            Wei%Chen%NULL%1,            Yuan%Lin%NULL%1,            Yishan%Zheng%NULL%1,            Jianming%Wang%NULL%1,            Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,            Yongxiang%Yi%ian0126@126.com%1,            Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%1,            Yao%Tian%NULL%2,            Yao%Tian%NULL%0,            Jing%Zhou%NULL%1,            Xuan%Ma%NULL%1,            Min%Yang%NULL%1,            ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,            James%Fielding%NULL%1,            Michaela%Diercke%NULL%1,            Christine%Campese%NULL%1,            Vincent%Enouf%NULL%1,            Alexandre%Gaymard%NULL%1,            Antonino%Bella%NULL%1,            Paola%Sognamiglio%NULL%1,            Maria José%Sierra Moros%NULL%1,            Antonio Nicolau%Riutort%NULL%1,            Yulia V.%Demina%NULL%1,            Romain%Mahieu%NULL%1,            Markku%Broas%NULL%1,            Malin%Bengnér%NULL%1,            Silke%Buda%NULL%1,            Julia%Schilling%NULL%1,            Laurent%Filleul%NULL%1,            Agnès%Lepoutre%NULL%1,            Christine%Saura%NULL%1,            Alexandra%Mailles%NULL%1,            Daniel%Levy-Bruhl%NULL%1,            Bruno%Coignard%NULL%1,            Sibylle%Bernard-Stoecklin%NULL%1,            Sylvie%Behillil%NULL%1,            Sylvie%van der Werf%NULL%1,            Martine%Valette%NULL%1,            Bruno%Lina%NULL%1,            Flavia%Riccardo%NULL%1,            Emanuele%Nicastri%NULL%1,            Inmaculada%Casas%NULL%1,            Amparo%Larrauri%NULL%1,            Magdalena%Salom Castell%NULL%1,            Francisco%Pozo%NULL%1,            Rinat A.%Maksyutov%NULL%1,            Charlotte%Martin%NULL%1,            Marc%Van Ranst%NULL%1,            Nathalie%Bossuyt%NULL%1,            Lotta%Siira%NULL%1,            Jussi%Sane%NULL%1,            Karin%Tegmark-Wisell%NULL%1,            Maria%Palmérus%NULL%1,            Eeva K.%Broberg%NULL%1,            Julien%Beauté%NULL%1,            Pernille%Jorgensen%NULL%1,            Nick%Bundle%NULL%1,            Dmitriy%Pereyaslov%NULL%1,            Cornelia%Adlhoch%NULL%1,            Jukka%Pukkila%NULL%1,            Richard%Pebody%NULL%1,            Sonja%Olsen%NULL%1,            Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%18,            Ting%Yu%NULL%0,            Ronghui%Du%NULL%1,            Guohui%Fan%NULL%0,            Ying%Liu%NULL%0,            Zhibo%Liu%NULL%1,            Jie%Xiang%NULL%1,            Yeming%Wang%NULL%0,            Bin%Song%NULL%1,            Xiaoying%Gu%NULL%0,            Lulu%Guan%NULL%1,            Yuan%Wei%NULL%0,            Hui%Li%NULL%0,            Xudong%Wu%NULL%1,            Jiuyang%Xu%NULL%0,            Shengjin%Tu%NULL%1,            Yi%Zhang%NULL%1,            Hua%Chen%NULL%1,            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,            Tangkai%Qi%NULL%1,            Li%Liu%NULL%1,            Yun%Ling%NULL%0,            Zhiping%Qian%NULL%1,            Tao%Li%NULL%1,            Feng%Li%NULL%1,            Qingnian%Xu%NULL%1,            Yuyi%Zhang%NULL%1,            Shuibao%Xu%NULL%1,            Zhigang%Song%NULL%1,            Yigang%Zeng%NULL%1,            Yinzhong%Shen%NULL%1,            Yuxin%Shi%NULL%0,            Tongyu%Zhu%NULL%1,            Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%1,            Bin%Quan%NULL%1,            Xiaoning%Li%NULL%1,            Guangjian%Gao%NULL%1,            Wenqiang%Zheng%NULL%1,            Jun%Zhang%NULL%1,            Zhiyun%Zhang%NULL%1,            Chunsheng%Liu%NULL%1,            Li%Li%NULL%0,            Chenglin%Wang%NULL%1,            Guihua%Zhang%NULL%1,            Jiajia%Li%NULL%1,            Yunhai%Dai%NULL%1,            Jianghua%Yang%yjhpath@163.com%1,            Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%4,            Kai%Xie%NULL%2,            Kai%Xie%NULL%0,            Hui%Lu%NULL%1,            Lei%Xu%bayinhexl@126.com%1,            Shusheng%Zhou%zhouss108@163.com%1,            Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,            Yuanyuan%Xing%NULL%1,            Yu%Xiao%NULL%1,            Liping%Deng%NULL%1,            Qiu%Zhao%NULL%1,            Hongling%Wang%NULL%1,            Yong%Xiong%NULL%1,            Zhenshun%Cheng%NULL%0,            Shicheng%Gao%NULL%1,            Ke%Liang%NULL%1,            Mingqi%Luo%NULL%1,            Tielong%Chen%NULL%1,            Shihui%Song%NULL%1,            Zhiyong%Ma%NULL%1,            Xiaoping%Chen%NULL%1,            Ruiying%Zheng%NULL%1,            Qian%Cao%NULL%1,            Fan%Wang%fanndywang@foxmail.com%1,            Yongxi%Zhang%znact1936@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,            Bohan%Yang%NULL%1,            Qianwen%Li%NULL%1,            Lu%Wen%NULL%1,            Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%1,            Yingxia%Liu%NULL%1,            Lei%Liu%NULL%1,            Xianfeng%Wang%NULL%1,            Nijuan%Luo%NULL%1,            Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,            N -B%Yang%NULL%1,            F%Ding%NULL%1,            A H Y%Ma%NULL%1,            Z -Y%Wang%NULL%2,            Y -F%Shen%NULL%1,            C -W%Shi%NULL%1,            X%Lian%NULL%1,            J -G%Chu%NULL%1,            L%Chen%chxmin@hotmail.com%1,            Z -Y%Wang%NULL%0,            D -W%Ren%NULL%1,            G -X%Li%NULL%1,            X -Q%Chen%chxmin@hotmail.com%1,            H -J%Shen%NULL%1,            X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%3,            Tuantuan%Li%NULL%1,            Mingfeng%Han%NULL%1,            Xiuyong%Li%NULL%1,            Dong%Wu%NULL%1,            Yuanhong%Xu%NULL%1,            Yulin%Zhu%NULL%1,            Yan%Liu%NULL%1,            Xiaowu%Wang%wangxiaowu19880218@126.com%1,            Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%34, Xingwang%Li%NULL%19, Lili%Ren%NULL%0, Jianping%Zhao%NULL%35, Yi%Hu%NULL%28, Li%Zhang%NULL%26, Guohui%Fan%NULL%34, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%34, Zhenshun%Cheng%NULL%19, Ting%Yu%NULL%59, Jiaan%Xia%NULL%15, Yuan%Wei%NULL%43, Wenjuan%Wu%NULL%14, Xuelei%Xie%NULL%15, Wen%Yin%NULL%20, Hui%Li%NULL%42, Min%Liu%NULL%0, Yan%Xiao%NULL%0, Hong%Gao%NULL%20, Li%Guo%NULL%18, Jungang%Xie%NULL%19, Guangfa%Wang%NULL%14, Rongmeng%Jiang%NULL%14, Zhancheng%Gao%NULL%15, Qi%Jin%NULL%17, Jianwei%Wang%wangjw28@163.com%0, Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0, Shuofeng%Yuan%NULL%3, Kin-Hang%Kok%NULL%3, Kelvin Kai-Wang%To%NULL%0, Hin%Chu%NULL%0, Jin%Yang%NULL%3, Fanfan%Xing%NULL%3, Jieling%Liu%NULL%3, Cyril Chik-Yan%Yip%NULL%5, Rosana Wing-Shan%Poon%NULL%5, Hoi-Wah%Tsoi%NULL%3, Simon Kam-Fai%Lo%NULL%3, Kwok-Hung%Chan%NULL%7, Vincent Kwok-Man%Poon%NULL%3, Wan-Mui%Chan%NULL%5, Jonathan Daniel%Ip%NULL%5, Jian-Piao%Cai%NULL%6, Vincent Chi-Chung%Cheng%NULL%0, Honglin%Chen%NULL%5, Christopher Kim-Ming%Hui%NULL%3, Kwok-Yung%Yuen%NULL%21]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0, Xuhua%Guan%NULL%2, Peng%Wu%NULL%4, Xiaoye%Wang%NULL%2, Lei%Zhou%NULL%4, Yeqing%Tong%NULL%2, Ruiqi%Ren%NULL%2, Kathy S.M.%Leung%NULL%2, Eric H.Y.%Lau%NULL%2, Jessica Y.%Wong%NULL%2, Xuesen%Xing%NULL%2, Nijuan%Xiang%NULL%3, Yang%Wu%NULL%2, Chao%Li%NULL%2, Qi%Chen%NULL%2, Dan%Li%NULL%3, Tian%Liu%NULL%2, Jing%Zhao%NULL%0, Man%Liu%NULL%2, Wenxiao%Tu%NULL%2, Chuding%Chen%NULL%2, Lianmei%Jin%NULL%2, Rui%Yang%NULL%2, Qi%Wang%NULL%4, Suhua%Zhou%NULL%2, Rui%Wang%NULL%3, Hui%Liu%NULL%4, Yinbo%Luo%NULL%2, Yuan%Liu%NULL%3, Ge%Shao%NULL%2, Huan%Li%NULL%6, Zhongfa%Tao%NULL%2, Yang%Yang%NULL%9, Zhiqiang%Deng%NULL%2, Boxi%Liu%NULL%2, Zhitao%Ma%NULL%2, Yanping%Zhang%NULL%2, Guoqing%Shi%NULL%2, Tommy T.Y.%Lam%NULL%2, Joseph T.%Wu%NULL%2, George F.%Gao%NULL%6, Benjamin J.%Cowling%NULL%3, Bo%Yang%NULL%12, Bo%Yang%NULL%0, Gabriel M.%Leung%NULL%4, Zijian%Feng%NULL%3]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0, Min%Zhou%NULL%19, Xuan%Dong%NULL%10, Jieming%Qu%NULL%23, Fengyun%Gong%NULL%10, Yang%Han%NULL%9, Yang%Qiu%NULL%9, Jingli%Wang%NULL%10, Ying%Liu%NULL%30, Yuan%Wei%NULL%0, Jia'an%Xia%NULL%23, Ting%Yu%NULL%0, Xinxin%Zhang%NULL%11, Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0, Nannan%Shi%NULL%5, Nannan%Shi%NULL%0, Fei%Shan%NULL%5, Zhiyong%Zhang%NULL%3, Jie%Shen%NULL%2, Hongzhou%Lu%NULL%17, Yun%Ling%NULL%0, Yebin%Jiang%NULL%4, Yebin%Jiang%NULL%0, Yuxin%Shi%shiyuxin@shphc.org.cn%11, Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>Radiological Society of North America</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0, Yuan-Yuan%Fang%NULL%11, Yan%Deng%NULL%0, Wei%Liu%NULL%0, Mei-Fang%Wang%NULL%6, Jing-Ping%Ma%NULL%6, Wei%Xiao%NULL%7, Ying-Nan%Wang%NULL%6, Min-Hua%Zhong%NULL%6, Cheng-Hong%Li%NULL%6, Guang-Cai%Li%NULL%6, Hui-Guo%Liu%NULL%15, Xiu-Yuan%Hao%NULL%18, Xiu-Yuan%Hao%NULL%0, Pei-Fang%Wei%NULL%31]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer Health</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0, Ye-Ming%Wang%NULL%3, Zhi-Qiang%Wu%NULL%3, Zi-Chun%Xiang%NULL%3, Li%Guo%NULL%0, Teng%Xu%NULL%4, Yong-Zhong%Jiang%NULL%3, Yan%Xiong%NULL%9, Yong-Jun%Li%NULL%3, Xing-Wang%Li%NULL%3, Hui%Li%NULL%0, Guo-Hui%Fan%NULL%3, Xiao-Ying%Gu%NULL%3, Yan%Xiao%NULL%0, Hong%Gao%NULL%0, Jiu-Yang%Xu%NULL%3, Fan%Yang%NULL%0, Xin-Ming%Wang%NULL%3, Chao%Wu%NULL%6, Lan%Chen%NULL%0, Yi-Wei%Liu%NULL%3, Bo%Liu%NULL%7, Jian%Yang%NULL%3, Xiao-Rui%Wang%NULL%3, Jie%Dong%NULL%3, Li%Li%NULL%0, Chao-Lin%Huang%NULL%3, Jian-Ping%Zhao%NULL%3, Yi%Hu%NULL%0, Zhen-Shun%Cheng%NULL%3, Lin-Lin%Liu%NULL%3, Zhao-Hui%Qian%NULL%3, Chuan%Qin%NULL%0, Qi%Jin%NULL%0, Bin%Cao%NULL%0, Jian-Wei%Wang%NULL%3, Xiu-Yuan%Hao%NULL%0, Xiu-Yuan%Hao%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0, Dengju%Li%NULL%4, Xiong%Wang%NULL%6, Ziyong%Sun%NULL%15]</t>
+  </si>
+  <si>
+    <t>International Society on Thrombosis and Haemostasis. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0, Xiao-Xin%Wu%NULL%7, Xian-Gao%Jiang%NULL%7, Kai-Jin%Xu%NULL%7, Ling-Jun%Ying%NULL%7, Chun-Lian%Ma%NULL%7, Shi-Bo%Li%NULL%7, Hua-Ying%Wang%NULL%7, Sheng%Zhang%NULL%10, Hai-Nv%Gao%NULL%8, Ji-Fang%Sheng%NULL%7, Hong-Liu%Cai%NULL%7, Yun-Qing%Qiu%NULL%7, Lan-Juan%Li%NULL%7]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%0, Xiaojia%Wu%NULL%1, Wenbing%Zeng%NULL%1, Dajing%Guo%NULL%4, Zheng%Fang%NULL%4, Linli%Chen%NULL%4, Huizhe%Huang%NULL%1, Chuanming%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%0, Valerie%Wong%NULL%1, Vivian Wan In%Wei%NULL%1, Samuel Yeung Shan%Wong%NULL%2, Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0, Xiaoyu%Han%NULL%3, Nanchuan%Jiang%NULL%1, Yukun%Cao%NULL%1, Osamah%Alwalid%NULL%1, Jin%Gu%NULL%1, Yanqing%Fan%1024932023@qq.com%2, Chuansheng%Zheng%hqzcsxh@sina.com%9]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%14, Jia'an%Xia%NULL%0, Hong%Liu%NULL%16, Yongran%Wu%NULL%22, Lu%Zhang%NULL%15, Zhui%Yu%NULL%19, Minghao%Fang%NULL%21, Ting%Yu%NULL%0, Yaxin%Wang%NULL%17, Shangwen%Pan%NULL%14, Xiaojing%Zou%NULL%18, Shiying%Yuan%NULL%19, You%Shang%NULL%23]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0, Jing-Hui%Dong%NULL%2, Wei-Min%An%NULL%2, Xiao-Yan%Lv%15001008285@139.com%2, Xiao-Ping%Yin%yinxiaoping78@sina.com%2, Jian-Zeng%Zhang%NULL%2, Li%Dong%NULL%3, Xi%Ma%NULL%2, Hong-Jie%Zhang%NULL%2, Bu-Lang%Gao%browngao@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0, Zhenlu%Yang%NULL%6, Zhenlu%Yang%NULL%0, Hongyan%Hou%NULL%6, Hongyan%Hou%NULL%0, Chenao%Zhan%NULL%3, Chong%Chen%NULL%3, Wenzhi%Lv%NULL%8, Wenzhi%Lv%NULL%0, Qian%Tao%NULL%6, Qian%Tao%NULL%0, Ziyong%Sun%NULL%0, Ziyong%Sun%NULL%0, Liming%Xia%xialiming2017@outlook.com%4]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0, Qiqi%Cao%NULL%4, Le%Qin%NULL%4, Xiaoyang%Wang%NULL%4, Zenghui%Cheng%NULL%4, Ashan%Pan%NULL%4, Jianyi%Dai%NULL%4, Qingfeng%Sun%NULL%4, Fengquan%Zhao%NULL%4, Jieming%Qu%NULL%0, Fuhua%Yan%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0, Nan%Hu%NULL%2, Jing%Lou%NULL%2, Kun%Chen%NULL%2, Xuqin%Kang%NULL%2, Zhenjun%Xiang%NULL%2, Hui%Chen%NULL%0, Dali%Wang%NULL%2, Ning%Liu%NULL%2, Dong%Liu%NULL%0, Gang%Chen%NULL%2, Yongliang%Zhang%NULL%2, Dou%Li%NULL%2, Jianren%Li%NULL%2, Huixin%Lian%NULL%2, Shengmei%Niu%NULL%2, Luxi%Zhang%NULL%2, Jinjun%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0, Mengqi%Tu%NULL%3, Shipei%Wang%NULL%3, Sichao%Chen%NULL%3, Wei%Zhou%NULL%0, Danyang%Chen%NULL%3, Lin%Zhou%NULL%3, Min%Wang%NULL%3, Yan%Zhao%NULL%5, Wen%Zeng%NULL%3, Qi%Huang%NULL%4, Hai'bo%Xu%NULL%3, Zeming%Liu%NULL%3, Liang%Guo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0, Chengcheng%Yu%NULL%4, Jing%Qu%NULL%3, Lieguang%Zhang%NULL%4, Songfeng%Jiang%NULL%3, Deyang%Huang%NULL%3, Bihua%Chen%NULL%3, Zhiping%Zhang%NULL%3, Wanhua%Guan%NULL%3, Zhoukun%Ling%NULL%3, Rui%Jiang%NULL%3, Tianli%Hu%NULL%3, Yan%Ding%NULL%3, Lin%Lin%NULL%3, Qingxin%Gan%NULL%3, Liangping%Luo%tluolp@jnu.edu.cn%4, Xiaoping%Tang%xtang@21cn.com%3, Jinxin%Liu%Liujx83710378@126.com%4]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0, Zhao-Wu%Tao%NULL%4, Lei%Wang%NULL%0, Ming-Li%Yuan%NULL%8, Kui%Liu%NULL%0, Ling%Zhou%NULL%9, Shuang%Wei%NULL%9, Yan%Deng%NULL%0, Jing%Liu%NULL%0, Hui-Guo%Liu%NULL%0, Ming%Yang%NULL%8, Yi%Hu%NULL%0, Pei-Fang%Wei%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0, Jiong%Wu%NULL%0, Faqi%Wu%NULL%3, Dajing%Guo%NULL%0, Linli%Chen%NULL%0, Zheng%Fang%NULL%0, Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0, Jun%Liu%NULL%6, Xinguo%Zhao%NULL%2, Chengyuan%Liu%NULL%2, Wei%Wang%NULL%0, Dawei%Wang%NULL%0, Wei%Xu%NULL%4, Chunyu%Zhang%NULL%2, Jiong%Yu%NULL%2, Bin%Jiang%NULL%2, Hongcui%Cao%hccao@zju.edu.cn%2, Lanjuan%Li%NULL%9]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0, Xiaorong%Hu%NULL%2, Wenlin%Cheng%NULL%12, Lei%Yu%NULL%12, Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%12, Qiang%Liu%liuqiang@irm-cams.ac.cn%15, Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0, Kun%Yang%NULL%11, Kun%Yang%NULL%0, Wenxia%Wang%NULL%10, Wenxia%Wang%NULL%0, Lingyu%Jiang%NULL%10, Lingyu%Jiang%NULL%0, Jianxin%Song%songsingsjx@sina.com%10, Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%0, Meiwen%Tang%NULL%1, Xiaobin%Zheng%NULL%2, Ye%Liu%ly77219@163.com%1, Xiaofeng%Li%zdwylxf@163.com%3, Hong%Shan%shanhong@mail.sysu.edu.cn%27]</t>
+  </si>
+  <si>
+    <t>by the AGA Institute</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0, Dong%Sun%NULL%1, Yao%Liu%NULL%1, Yanqing%Fan%NULL%0, Lingyun%Zhao%NULL%1, Xiaoming%Li%NULL%2, Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0, Ci%Song%NULL%2, Chuanjun%Xu%NULL%2, Guangfu%Jin%NULL%2, Yaling%Chen%NULL%2, Xin%Xu%NULL%5, Hongxia%Ma%NULL%2, Wei%Chen%NULL%7, Yuan%Lin%NULL%2, Yishan%Zheng%NULL%4, Jianming%Wang%NULL%8, Zhibin%Hu%zhibin_hu@njmu.edu.cn%2, Yongxiang%Yi%ian0126@126.com%2, Hongbing%Shen%NULL%2]</t>
+  </si>
+  <si>
+    <t>Science China Press</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0, Yao%Tian%NULL%2, Yao%Tian%NULL%0, Jing%Zhou%NULL%3, Xuan%Ma%NULL%1, Min%Yang%NULL%1, ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>European Respiratory Society</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%0, James%Fielding%NULL%1, Michaela%Diercke%NULL%1, Christine%Campese%NULL%1, Vincent%Enouf%NULL%1, Alexandre%Gaymard%NULL%1, Antonino%Bella%NULL%1, Paola%Sognamiglio%NULL%1, Maria José%Sierra Moros%NULL%1, Antonio Nicolau%Riutort%NULL%1, Yulia V.%Demina%NULL%1, Romain%Mahieu%NULL%1, Markku%Broas%NULL%1, Malin%Bengnér%NULL%1, Silke%Buda%NULL%1, Julia%Schilling%NULL%1, Laurent%Filleul%NULL%1, Agnès%Lepoutre%NULL%1, Christine%Saura%NULL%1, Alexandra%Mailles%NULL%1, Daniel%Levy-Bruhl%NULL%1, Bruno%Coignard%NULL%1, Sibylle%Bernard-Stoecklin%NULL%1, Sylvie%Behillil%NULL%1, Sylvie%van der Werf%NULL%1, Martine%Valette%NULL%1, Bruno%Lina%NULL%1, Flavia%Riccardo%NULL%1, Emanuele%Nicastri%NULL%4, Inmaculada%Casas%NULL%1, Amparo%Larrauri%NULL%1, Magdalena%Salom Castell%NULL%1, Francisco%Pozo%NULL%1, Rinat A.%Maksyutov%NULL%1, Charlotte%Martin%NULL%1, Marc%Van Ranst%NULL%5, Nathalie%Bossuyt%NULL%1, Lotta%Siira%NULL%1, Jussi%Sane%NULL%1, Karin%Tegmark-Wisell%NULL%1, Maria%Palmérus%NULL%1, Eeva K.%Broberg%NULL%1, Julien%Beauté%NULL%2, Pernille%Jorgensen%NULL%1, Nick%Bundle%NULL%2, Dmitriy%Pereyaslov%NULL%1, Cornelia%Adlhoch%NULL%1, Jukka%Pukkila%NULL%1, Richard%Pebody%NULL%1, Sonja%Olsen%NULL%1, Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>European Centre for Disease Prevention and Control (ECDC)</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%18, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%20, Jie%Xiang%NULL%33, Yeming%Wang%NULL%0, Bin%Song%NULL%19, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%18, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%19, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%18, Yi%Zhang%NULL%22, Hua%Chen%NULL%19, Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0, Ying%Chen%NULL%3, Ruzheng%Lin%NULL%2, Kunyuan%Han%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0, Tangkai%Qi%NULL%4, Li%Liu%NULL%8, Yun%Ling%NULL%0, Zhiping%Qian%NULL%6, Tao%Li%NULL%0, Feng%Li%NULL%9, Qingnian%Xu%NULL%6, Yuyi%Zhang%NULL%6, Shuibao%Xu%NULL%4, Zhigang%Song%NULL%6, Yigang%Zeng%NULL%4, Yinzhong%Shen%NULL%0, Yuxin%Shi%NULL%0, Tongyu%Zhu%NULL%7, Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0, Feifei%Yao%NULL%2, Lijie%Wang%NULL%2, Ling%Zheng%NULL%2, Yongjun%Gao%NULL%2, Jun%Ye%NULL%2, Feng%Guo%NULL%2, Hui%Zhao%NULL%2, Rongbao%Gao%rongbaogao@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%0, Bin%Quan%NULL%1, Xiaoning%Li%NULL%3, Guangjian%Gao%NULL%1, Wenqiang%Zheng%NULL%1, Jun%Zhang%NULL%0, Zhiyun%Zhang%NULL%1, Chunsheng%Liu%NULL%1, Li%Li%NULL%0, Chenglin%Wang%NULL%1, Guihua%Zhang%NULL%1, Jiajia%Li%NULL%1, Yunhai%Dai%NULL%1, Jianghua%Yang%yjhpath@163.com%1, Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0, Kai%Xie%NULL%8, Kai%Xie%NULL%0, Hui%Lu%NULL%4, Lei%Xu%bayinhexl@126.com%5, Shusheng%Zhou%zhouss108@163.com%4, Shiyuan%Fang%fangshiyuan2008@126.com%4]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0, Yuanyuan%Xing%NULL%0, Yu%Xiao%NULL%6, Liping%Deng%NULL%7, Qiu%Zhao%NULL%5, Hongling%Wang%NULL%5, Yong%Xiong%NULL%12, Zhenshun%Cheng%NULL%0, Shicheng%Gao%NULL%7, Ke%Liang%NULL%7, Mingqi%Luo%NULL%7, Tielong%Chen%NULL%5, Shihui%Song%NULL%7, Zhiyong%Ma%NULL%7, Xiaoping%Chen%NULL%7, Ruiying%Zheng%NULL%5, Qian%Cao%NULL%5, Fan%Wang%fanndywang@foxmail.com%6, Yongxi%Zhang%znact1936@126.com%12]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0, Bohan%Yang%NULL%6, Qianwen%Li%NULL%6, Lu%Wen%NULL%6, Ruiguang%Zhang%zrg27@163.com%6]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%0, Yingxia%Liu%NULL%0, Lei%Liu%NULL%32, Xianfeng%Wang%NULL%1, Nijuan%Luo%NULL%1, Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0, N -B%Yang%NULL%2, F%Ding%NULL%2, A H Y%Ma%NULL%2, Z -Y%Wang%NULL%4, Y -F%Shen%NULL%2, C -W%Shi%NULL%2, X%Lian%NULL%2, J -G%Chu%NULL%2, L%Chen%chxmin@hotmail.com%2, Z -Y%Wang%NULL%0, D -W%Ren%NULL%2, G -X%Li%NULL%2, X -Q%Chen%chxmin@hotmail.com%2, H -J%Shen%NULL%2, X -M%Chen%chxmin@hotmail.com%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0, Tuantuan%Li%NULL%3, Mingfeng%Han%NULL%9, Xiuyong%Li%NULL%3, Dong%Wu%NULL%3, Yuanhong%Xu%NULL%5, Yulin%Zhu%NULL%3, Yan%Liu%NULL%4, Xiaowu%Wang%wangxiaowu19880218@126.com%3, Linding%Wang%wanglinding@ahmu.edu.cn%3]</t>
   </si>
 </sst>
 </file>
@@ -5989,7 +6382,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>1589</v>
+        <v>1713</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -6001,10 +6394,10 @@
         <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>1198</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -6021,7 +6414,7 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>1590</v>
+        <v>1715</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -6033,10 +6426,10 @@
         <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>1198</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -6053,7 +6446,7 @@
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>1591</v>
+        <v>1716</v>
       </c>
       <c r="F4" t="s">
         <v>78</v>
@@ -6065,10 +6458,10 @@
         <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -6085,7 +6478,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>1592</v>
+        <v>1718</v>
       </c>
       <c r="F5" t="s">
         <v>82</v>
@@ -6097,10 +6490,10 @@
         <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>1198</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -6117,7 +6510,7 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>1593</v>
+        <v>1719</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -6129,10 +6522,10 @@
         <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -6143,25 +6536,25 @@
         <v>43868</v>
       </c>
       <c r="C7" t="s">
-        <v>416</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>417</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>1594</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>419</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
         <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
         <v>70</v>
@@ -6181,7 +6574,7 @@
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>1595</v>
+        <v>1721</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
@@ -6193,10 +6586,10 @@
         <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6207,28 +6600,28 @@
         <v>43868</v>
       </c>
       <c r="C9" t="s">
-        <v>639</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
         <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>974</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>641</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>1338</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
         <v>70</v>
       </c>
       <c r="J9" t="s">
-        <v>1339</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6239,22 +6632,22 @@
         <v>43891</v>
       </c>
       <c r="C10" t="s">
-        <v>361</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>808</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>1596</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>364</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
         <v>70</v>
@@ -6277,7 +6670,7 @@
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>1597</v>
+        <v>1723</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
@@ -6289,10 +6682,10 @@
         <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -6309,7 +6702,7 @@
         <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>1598</v>
+        <v>1724</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
@@ -6321,10 +6714,10 @@
         <v>105</v>
       </c>
       <c r="I12" t="s">
-        <v>1198</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -6335,25 +6728,25 @@
         <v>43880</v>
       </c>
       <c r="C13" t="s">
-        <v>424</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>425</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>1599</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>419</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
         <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
         <v>70</v>
@@ -6373,7 +6766,7 @@
         <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>1600</v>
+        <v>1726</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -6385,10 +6778,10 @@
         <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -6405,7 +6798,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>1601</v>
+        <v>1728</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -6417,10 +6810,10 @@
         <v>115</v>
       </c>
       <c r="I15" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -6437,7 +6830,7 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>704</v>
+        <v>1730</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -6449,10 +6842,10 @@
         <v>119</v>
       </c>
       <c r="I16" t="s">
-        <v>1198</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -6469,7 +6862,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>1602</v>
+        <v>1732</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -6481,10 +6874,10 @@
         <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>1198</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -6501,7 +6894,7 @@
         <v>1208</v>
       </c>
       <c r="E18" t="s">
-        <v>1603</v>
+        <v>1733</v>
       </c>
       <c r="F18" t="s">
         <v>267</v>
@@ -6513,10 +6906,10 @@
         <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>1198</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -6533,7 +6926,7 @@
         <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>1604</v>
+        <v>1734</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -6545,10 +6938,10 @@
         <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>1198</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>70</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -6565,7 +6958,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>1605</v>
+        <v>1735</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -6577,10 +6970,10 @@
         <v>69</v>
       </c>
       <c r="I20" t="s">
-        <v>1211</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
-        <v>70</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -6597,7 +6990,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>1606</v>
+        <v>1736</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -6609,10 +7002,10 @@
         <v>128</v>
       </c>
       <c r="I21" t="s">
-        <v>1198</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -6629,7 +7022,7 @@
         <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>1607</v>
+        <v>1737</v>
       </c>
       <c r="F22" t="s">
         <v>140</v>
@@ -6641,10 +7034,10 @@
         <v>128</v>
       </c>
       <c r="I22" t="s">
-        <v>1198</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -6661,7 +7054,7 @@
         <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>1608</v>
+        <v>1738</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -6673,10 +7066,10 @@
         <v>144</v>
       </c>
       <c r="I23" t="s">
-        <v>1198</v>
+        <v>70</v>
       </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -6693,7 +7086,7 @@
         <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>1609</v>
+        <v>1739</v>
       </c>
       <c r="F24" t="s">
         <v>148</v>
@@ -6705,10 +7098,10 @@
         <v>115</v>
       </c>
       <c r="I24" t="s">
-        <v>1213</v>
+        <v>70</v>
       </c>
       <c r="J24" t="s">
-        <v>70</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -6725,7 +7118,7 @@
         <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>1610</v>
+        <v>1741</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -6737,10 +7130,10 @@
         <v>69</v>
       </c>
       <c r="I25" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s">
-        <v>70</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -6757,7 +7150,7 @@
         <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>1611</v>
+        <v>1742</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -6769,10 +7162,10 @@
         <v>144</v>
       </c>
       <c r="I26" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J26" t="s">
-        <v>70</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -6789,7 +7182,7 @@
         <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>1612</v>
+        <v>1743</v>
       </c>
       <c r="F27" t="s">
         <v>160</v>
@@ -6801,10 +7194,10 @@
         <v>69</v>
       </c>
       <c r="I27" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J27" t="s">
-        <v>70</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -6821,7 +7214,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>1613</v>
+        <v>1745</v>
       </c>
       <c r="F28" t="s">
         <v>163</v>
@@ -6833,10 +7226,10 @@
         <v>128</v>
       </c>
       <c r="I28" t="s">
-        <v>1213</v>
+        <v>70</v>
       </c>
       <c r="J28" t="s">
-        <v>70</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -6853,7 +7246,7 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>1614</v>
+        <v>1746</v>
       </c>
       <c r="F29" t="s">
         <v>166</v>
@@ -6865,10 +7258,10 @@
         <v>144</v>
       </c>
       <c r="I29" t="s">
-        <v>1213</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>70</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -6879,28 +7272,28 @@
         <v>43952</v>
       </c>
       <c r="C30" t="s">
-        <v>1216</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
         <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>1615</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>641</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s">
-        <v>1338</v>
+        <v>69</v>
       </c>
       <c r="I30" t="s">
         <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>1353</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -6917,7 +7310,7 @@
         <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>1616</v>
+        <v>1747</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -6929,10 +7322,10 @@
         <v>170</v>
       </c>
       <c r="I31" t="s">
-        <v>1198</v>
+        <v>70</v>
       </c>
       <c r="J31" t="s">
-        <v>70</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -6949,7 +7342,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>1617</v>
+        <v>1749</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -6961,10 +7354,10 @@
         <v>170</v>
       </c>
       <c r="I32" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J32" t="s">
-        <v>70</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -6975,28 +7368,28 @@
         <v>43893</v>
       </c>
       <c r="C33" t="s">
-        <v>1053</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
         <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>1618</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s">
-        <v>641</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s">
-        <v>1357</v>
+        <v>69</v>
       </c>
       <c r="I33" t="s">
         <v>70</v>
       </c>
       <c r="J33" t="s">
-        <v>1339</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -7013,7 +7406,7 @@
         <v>1220</v>
       </c>
       <c r="E34" t="s">
-        <v>1619</v>
+        <v>282</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -7025,10 +7418,10 @@
         <v>179</v>
       </c>
       <c r="I34" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J34" t="s">
-        <v>70</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -7039,28 +7432,28 @@
         <v>43983</v>
       </c>
       <c r="C35" t="s">
-        <v>1057</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
         <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>1620</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s">
-        <v>641</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s">
-        <v>1338</v>
+        <v>69</v>
       </c>
       <c r="I35" t="s">
         <v>70</v>
       </c>
       <c r="J35" t="s">
-        <v>1353</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -7077,7 +7470,7 @@
         <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>1621</v>
+        <v>1751</v>
       </c>
       <c r="F36" t="s">
         <v>183</v>
@@ -7089,10 +7482,10 @@
         <v>184</v>
       </c>
       <c r="I36" t="s">
-        <v>1213</v>
+        <v>70</v>
       </c>
       <c r="J36" t="s">
-        <v>70</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -7109,7 +7502,7 @@
         <v>1222</v>
       </c>
       <c r="E37" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="F37" t="s">
         <v>188</v>
@@ -7121,10 +7514,10 @@
         <v>189</v>
       </c>
       <c r="I37" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J37" t="s">
-        <v>70</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -7135,28 +7528,28 @@
         <v>43983</v>
       </c>
       <c r="C38" t="s">
-        <v>1061</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
         <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>1623</v>
+        <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s">
-        <v>641</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s">
-        <v>1362</v>
+        <v>69</v>
       </c>
       <c r="I38" t="s">
         <v>70</v>
       </c>
       <c r="J38" t="s">
-        <v>1353</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -7173,7 +7566,7 @@
         <v>1225</v>
       </c>
       <c r="E39" t="s">
-        <v>1624</v>
+        <v>1755</v>
       </c>
       <c r="F39" t="s">
         <v>193</v>
@@ -7185,10 +7578,10 @@
         <v>194</v>
       </c>
       <c r="I39" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J39" t="s">
-        <v>70</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -7205,7 +7598,7 @@
         <v>1226</v>
       </c>
       <c r="E40" t="s">
-        <v>727</v>
+        <v>197</v>
       </c>
       <c r="F40" t="s">
         <v>198</v>
@@ -7217,10 +7610,10 @@
         <v>69</v>
       </c>
       <c r="I40" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J40" t="s">
-        <v>70</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -7237,7 +7630,7 @@
         <v>1227</v>
       </c>
       <c r="E41" t="s">
-        <v>728</v>
+        <v>1228</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -7249,10 +7642,10 @@
         <v>189</v>
       </c>
       <c r="I41" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J41" t="s">
-        <v>70</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -7269,7 +7662,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>1625</v>
+        <v>1757</v>
       </c>
       <c r="F42" t="s">
         <v>206</v>
@@ -7281,10 +7674,10 @@
         <v>69</v>
       </c>
       <c r="I42" t="s">
-        <v>1198</v>
+        <v>70</v>
       </c>
       <c r="J42" t="s">
-        <v>70</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -7295,28 +7688,28 @@
         <v>43891</v>
       </c>
       <c r="C43" t="s">
-        <v>1067</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>1068</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>1069</v>
+        <v>90</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s">
-        <v>641</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s">
-        <v>1070</v>
+        <v>69</v>
       </c>
       <c r="I43" t="s">
         <v>70</v>
       </c>
       <c r="J43" t="s">
-        <v>1365</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -7333,7 +7726,7 @@
         <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>731</v>
+        <v>1758</v>
       </c>
       <c r="F44" t="s">
         <v>210</v>
@@ -7345,10 +7738,10 @@
         <v>211</v>
       </c>
       <c r="I44" t="s">
-        <v>1198</v>
+        <v>70</v>
       </c>
       <c r="J44" t="s">
-        <v>70</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -7365,7 +7758,7 @@
         <v>1230</v>
       </c>
       <c r="E45" t="s">
-        <v>1626</v>
+        <v>1759</v>
       </c>
       <c r="F45" t="s">
         <v>215</v>
@@ -7377,10 +7770,10 @@
         <v>216</v>
       </c>
       <c r="I45" t="s">
-        <v>1198</v>
+        <v>70</v>
       </c>
       <c r="J45" t="s">
-        <v>70</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -7397,7 +7790,7 @@
         <v>218</v>
       </c>
       <c r="E46" t="s">
-        <v>733</v>
+        <v>1760</v>
       </c>
       <c r="F46" t="s">
         <v>220</v>
@@ -7409,10 +7802,10 @@
         <v>69</v>
       </c>
       <c r="I46" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J46" t="s">
-        <v>70</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -7429,7 +7822,7 @@
         <v>1231</v>
       </c>
       <c r="E47" t="s">
-        <v>1627</v>
+        <v>1761</v>
       </c>
       <c r="F47" t="s">
         <v>224</v>
@@ -7441,10 +7834,10 @@
         <v>225</v>
       </c>
       <c r="I47" t="s">
-        <v>1211</v>
+        <v>70</v>
       </c>
       <c r="J47" t="s">
-        <v>70</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -7455,28 +7848,28 @@
         <v>43891</v>
       </c>
       <c r="C48" t="s">
-        <v>1075</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
         <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>1628</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s">
-        <v>641</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s">
-        <v>1357</v>
+        <v>69</v>
       </c>
       <c r="I48" t="s">
         <v>70</v>
       </c>
       <c r="J48" t="s">
-        <v>1339</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -7493,7 +7886,7 @@
         <v>1233</v>
       </c>
       <c r="E49" t="s">
-        <v>1629</v>
+        <v>1762</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -7505,10 +7898,10 @@
         <v>230</v>
       </c>
       <c r="I49" t="s">
-        <v>1211</v>
+        <v>70</v>
       </c>
       <c r="J49" t="s">
-        <v>70</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -7519,28 +7912,28 @@
         <v>44013</v>
       </c>
       <c r="C50" t="s">
-        <v>1078</v>
+        <v>88</v>
       </c>
       <c r="D50" t="s">
         <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>1630</v>
+        <v>90</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s">
-        <v>641</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s">
-        <v>1357</v>
+        <v>69</v>
       </c>
       <c r="I50" t="s">
         <v>70</v>
       </c>
       <c r="J50" t="s">
-        <v>1353</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -7557,7 +7950,7 @@
         <v>232</v>
       </c>
       <c r="E51" t="s">
-        <v>1631</v>
+        <v>1763</v>
       </c>
       <c r="F51" t="s">
         <v>234</v>
@@ -7569,10 +7962,10 @@
         <v>69</v>
       </c>
       <c r="I51" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J51" t="s">
-        <v>70</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -7589,7 +7982,7 @@
         <v>236</v>
       </c>
       <c r="E52" t="s">
-        <v>1632</v>
+        <v>1764</v>
       </c>
       <c r="F52" t="s">
         <v>238</v>
@@ -7601,10 +7994,10 @@
         <v>69</v>
       </c>
       <c r="I52" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J52" t="s">
-        <v>70</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -7621,7 +8014,7 @@
         <v>1236</v>
       </c>
       <c r="E53" t="s">
-        <v>1633</v>
+        <v>1765</v>
       </c>
       <c r="F53" t="s">
         <v>242</v>
@@ -7633,10 +8026,10 @@
         <v>243</v>
       </c>
       <c r="I53" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J53" t="s">
-        <v>70</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -7647,28 +8040,28 @@
         <v>44044</v>
       </c>
       <c r="C54" t="s">
-        <v>1084</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
         <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>1634</v>
+        <v>90</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s">
-        <v>641</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s">
-        <v>1086</v>
+        <v>69</v>
       </c>
       <c r="I54" t="s">
         <v>70</v>
       </c>
       <c r="J54" t="s">
-        <v>1353</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -7685,7 +8078,7 @@
         <v>245</v>
       </c>
       <c r="E55" t="s">
-        <v>1635</v>
+        <v>1766</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -7697,10 +8090,10 @@
         <v>69</v>
       </c>
       <c r="I55" t="s">
-        <v>1199</v>
+        <v>70</v>
       </c>
       <c r="J55" t="s">
-        <v>70</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -7717,7 +8110,7 @@
         <v>1238</v>
       </c>
       <c r="E56" t="s">
-        <v>1636</v>
+        <v>1767</v>
       </c>
       <c r="F56" t="s">
         <v>251</v>
@@ -7729,10 +8122,10 @@
         <v>243</v>
       </c>
       <c r="I56" t="s">
-        <v>1211</v>
+        <v>70</v>
       </c>
       <c r="J56" t="s">
-        <v>70</v>
+        <v>1750</v>
       </c>
     </row>
   </sheetData>
